--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B69EA-4788-474F-B623-A28090487FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B01445-E102-48C6-A800-45DB4C403C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>M</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Als gepensioneerde, wil ik een goed helder navigeerbaar paneel met knoppen,</t>
   </si>
   <si>
-    <t>Als medewerker, wil ik een Rijksoverheid logo op de website,</t>
-  </si>
-  <si>
     <t>Zodat de herkenbaarheid gewaarborgd blijft.</t>
   </si>
   <si>
@@ -222,6 +219,18 @@
   </si>
   <si>
     <t>Zodat die wijven beter hun werk kunnen doen.</t>
+  </si>
+  <si>
+    <t>Als medewerker, wil ik het logo van de Gemeente op de website,</t>
+  </si>
+  <si>
+    <t>Zodat gegevens aangepast kunnen worden.</t>
+  </si>
+  <si>
+    <t>Reinier de Brink</t>
+  </si>
+  <si>
+    <t>Als Data Analist, wil ik een PDO Database connectie zien,</t>
   </si>
 </sst>
 </file>
@@ -359,14 +368,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -383,9 +391,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,7 +404,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,11 +414,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,508 +755,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="7">
+      <c r="D12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="7">
-        <v>10</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="C13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6">
         <v>14</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6">
         <v>16</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6">
         <v>18</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6">
         <v>19</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6">
         <v>20</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="19" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="19" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="20" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C33" s="2"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B01445-E102-48C6-A800-45DB4C403C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FECF99-1B94-4519-AECF-5187FF755BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>M</t>
   </si>
@@ -231,13 +231,76 @@
   </si>
   <si>
     <t>Als Data Analist, wil ik een PDO Database connectie zien,</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik dat er automatische GPS-coordinaten op worden gevraagd (met toestemming) bij het indienen van een klacht</t>
+  </si>
+  <si>
+    <t>Als gebruiker wil ik de mogelijkheid krijgen om foto's te uploaden als onderdeel van een klacht</t>
+  </si>
+  <si>
+    <t>Zodat ik weet om welke locatie het gaat</t>
+  </si>
+  <si>
+    <t>Zodat eventuele schade door de beheerder beter bekeken kan worden</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik een weergave van coordinaten op een interactieve kaart</t>
+  </si>
+  <si>
+    <t>Zodat ik weet waar de coordinaten precies liggen</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik dat alle klachten te zien zijn op de kaart door middel van pin</t>
+  </si>
+  <si>
+    <t>Zodat als ik er op klik er een korte beschrijving van de klacht verschijnt</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik dat er sterke beveiligingsmaatregelen worden geimplementeerd</t>
+  </si>
+  <si>
+    <t>Zodat normale bezoekers niet het dashboard kunnen zien</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik dat er rekening wordt gehouden met privacywetgeving (AVG/GDPR)</t>
+  </si>
+  <si>
+    <t>Zodat er geen onnodige gegevens worden opgeslagen</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik dat er gezorgd wordt dat data niet te lang bewaard blijft</t>
+  </si>
+  <si>
+    <t>Zodat de data anders in verkeerde handen valt</t>
+  </si>
+  <si>
+    <t>Vinnie Bryant</t>
+  </si>
+  <si>
+    <t>Eleni Terry</t>
+  </si>
+  <si>
+    <t>Inaya Miranda</t>
+  </si>
+  <si>
+    <t>Cora Hartman</t>
+  </si>
+  <si>
+    <t>Cerys Osborne</t>
+  </si>
+  <si>
+    <t>Ruairi Finley</t>
+  </si>
+  <si>
+    <t>Brett Chandler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +340,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,6 +493,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,20 +815,20 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="68.90625" customWidth="1"/>
-    <col min="4" max="4" width="43.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="107.88671875" customWidth="1"/>
+    <col min="4" max="4" width="58.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
@@ -772,7 +846,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -802,7 +876,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -828,7 +902,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -848,7 +922,7 @@
       <c r="G4" s="19"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
@@ -868,7 +942,7 @@
       <c r="G5" s="19"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -888,7 +962,7 @@
       <c r="G6" s="19"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -908,7 +982,7 @@
       <c r="G7" s="19"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
@@ -928,7 +1002,7 @@
       <c r="G8" s="19"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
@@ -947,7 +1021,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
@@ -966,7 +1040,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>57</v>
       </c>
@@ -985,7 +1059,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
@@ -1004,7 +1078,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>63</v>
       </c>
@@ -1023,84 +1097,126 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="E15" s="21"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="B16" s="6">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="B17" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="E17" s="21"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="B18" s="6">
         <v>16</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="E19" s="21"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="B20" s="6">
         <v>18</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="E20" s="21"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>19</v>
@@ -1111,7 +1227,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
         <v>20</v>
@@ -1122,10 +1238,10 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>1</v>
       </c>
@@ -1155,7 +1271,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1285,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1299,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>1</v>
       </c>
@@ -1195,7 +1311,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1325,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>20</v>
@@ -1220,7 +1336,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="D31" s="16" t="s">
         <v>29</v>
@@ -1228,7 +1344,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" s="17" t="s">
         <v>30</v>
       </c>
@@ -1240,5 +1356,6 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FECF99-1B94-4519-AECF-5187FF755BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D31E83E-9F9B-4BD3-8282-0E8A59AAB6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>M</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Front-end (CSS Styling)</t>
   </si>
   <si>
-    <t>Afgerond = Groen | Leeg = blauw</t>
-  </si>
-  <si>
     <t>10 Userstories</t>
   </si>
   <si>
@@ -224,27 +221,12 @@
     <t>Als medewerker, wil ik het logo van de Gemeente op de website,</t>
   </si>
   <si>
-    <t>Zodat gegevens aangepast kunnen worden.</t>
-  </si>
-  <si>
-    <t>Reinier de Brink</t>
-  </si>
-  <si>
-    <t>Als Data Analist, wil ik een PDO Database connectie zien,</t>
-  </si>
-  <si>
-    <t>Als beheerder wil ik dat er automatische GPS-coordinaten op worden gevraagd (met toestemming) bij het indienen van een klacht</t>
-  </si>
-  <si>
     <t>Als gebruiker wil ik de mogelijkheid krijgen om foto's te uploaden als onderdeel van een klacht</t>
   </si>
   <si>
     <t>Zodat ik weet om welke locatie het gaat</t>
   </si>
   <si>
-    <t>Zodat eventuele schade door de beheerder beter bekeken kan worden</t>
-  </si>
-  <si>
     <t>Als beheerder wil ik een weergave van coordinaten op een interactieve kaart</t>
   </si>
   <si>
@@ -294,6 +276,15 @@
   </si>
   <si>
     <t>Brett Chandler</t>
+  </si>
+  <si>
+    <t>Zodat eventuele schade door de beheerder bekeken kan worden</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik dat er automatisch GPS-coordinaten op worden gevraagd (met toestemming) bij het indienen van een klacht</t>
+  </si>
+  <si>
+    <t>Afgerond = Groen | Leeg = Grijs</t>
   </si>
 </sst>
 </file>
@@ -352,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,12 +370,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -398,6 +383,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,43 +450,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -494,9 +493,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,29 +827,29 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="107.88671875" customWidth="1"/>
-    <col min="4" max="4" width="58.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="107.90625" customWidth="1"/>
+    <col min="4" max="4" width="58.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -846,26 +858,26 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3"/>
@@ -876,24 +888,24 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -902,454 +914,458 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="6">
+      <c r="D5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="5">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="5">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="5">
+        <v>15</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5">
+        <v>16</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="5">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="B26" s="4"/>
+      <c r="C26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="B27" s="4"/>
+      <c r="C27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="6">
-        <v>8</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="6">
-        <v>9</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="7">
-        <v>11</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="6">
-        <v>12</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="6">
-        <v>13</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="6">
-        <v>14</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="6">
-        <v>15</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="6">
-        <v>16</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="6">
-        <v>17</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="6">
-        <v>18</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6">
+      <c r="B29" s="26"/>
+      <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6">
-        <v>20</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D32" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D31E83E-9F9B-4BD3-8282-0E8A59AAB6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26196428-6C2B-4C66-A089-AFD24B708E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -490,9 +490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,6 +505,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,15 +841,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -889,7 +889,7 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="5">
@@ -915,7 +915,7 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="5">
@@ -935,7 +935,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="5">
@@ -955,7 +955,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="5">
@@ -975,7 +975,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="5">
@@ -995,7 +995,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="5">
@@ -1015,7 +1015,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="5">
@@ -1034,7 +1034,7 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="5">
@@ -1053,7 +1053,7 @@
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="5">
@@ -1072,7 +1072,7 @@
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="5">
@@ -1091,7 +1091,7 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="5">
@@ -1108,7 +1108,7 @@
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="5">
@@ -1127,7 +1127,7 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="5">
@@ -1146,7 +1146,7 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="5">
@@ -1165,7 +1165,7 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="5">
@@ -1184,7 +1184,7 @@
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="5">
@@ -1203,7 +1203,7 @@
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="5">
@@ -1222,7 +1222,7 @@
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="5">
         <v>18</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="5">
         <v>19</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="5">
         <v>20</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="26"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1284,8 +1284,8 @@
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
@@ -1299,7 +1299,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
@@ -1331,7 +1331,7 @@
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="15" t="s">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26196428-6C2B-4C66-A089-AFD24B708E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC24D7B3-CD28-4688-8856-8567C42538A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>M</t>
   </si>
@@ -285,6 +285,30 @@
   </si>
   <si>
     <t>Afgerond = Groen | Leeg = Grijs</t>
+  </si>
+  <si>
+    <t>Als programmeur wil ik geobject georienteerde code hebben</t>
+  </si>
+  <si>
+    <t>Zodat het hergebruik van code eenvoudiger wordt</t>
+  </si>
+  <si>
+    <t>must H.</t>
+  </si>
+  <si>
+    <t>Haidar Fariha</t>
+  </si>
+  <si>
+    <t>Als programmeur wil ik een database connectie in de code</t>
+  </si>
+  <si>
+    <t>Zodat er gegevens opgeslagen kunnen worden en om gegevens uit de database te halen</t>
+  </si>
+  <si>
+    <t>Ilma Jamillah</t>
+  </si>
+  <si>
+    <t>css</t>
   </si>
 </sst>
 </file>
@@ -405,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -437,11 +461,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,9 +534,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,6 +541,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,30 +864,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="107.90625" customWidth="1"/>
-    <col min="4" max="4" width="58.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="107.88671875" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -858,7 +896,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -888,7 +926,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -914,7 +952,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
@@ -934,7 +972,7 @@
       <c r="G4" s="17"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
@@ -954,7 +992,7 @@
       <c r="G5" s="17"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>41</v>
       </c>
@@ -974,7 +1012,7 @@
       <c r="G6" s="17"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
@@ -994,7 +1032,7 @@
       <c r="G7" s="17"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>51</v>
       </c>
@@ -1014,7 +1052,7 @@
       <c r="G8" s="17"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
@@ -1033,7 +1071,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
@@ -1052,7 +1090,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>56</v>
       </c>
@@ -1071,7 +1109,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>58</v>
       </c>
@@ -1090,7 +1128,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>73</v>
       </c>
@@ -1107,7 +1145,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>74</v>
       </c>
@@ -1126,8 +1164,8 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="5">
@@ -1145,8 +1183,8 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="5">
@@ -1164,7 +1202,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>77</v>
       </c>
@@ -1183,7 +1221,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>78</v>
       </c>
@@ -1202,7 +1240,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>79</v>
       </c>
@@ -1221,47 +1259,65 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
+      <c r="C20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="B21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
+      <c r="C21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
       <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1284,10 +1340,10 @@
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1299,9 +1355,9 @@
         <v>25</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1371,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>1</v>
       </c>
@@ -1327,11 +1383,11 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
@@ -1341,7 +1397,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>20</v>
@@ -1352,15 +1408,15 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="D31" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" s="15" t="s">
         <v>82</v>
       </c>

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC24D7B3-CD28-4688-8856-8567C42538A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E6471-B0F0-498D-99C5-D52BD83BEF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -299,16 +299,16 @@
     <t>Haidar Fariha</t>
   </si>
   <si>
-    <t>Als programmeur wil ik een database connectie in de code</t>
-  </si>
-  <si>
-    <t>Zodat er gegevens opgeslagen kunnen worden en om gegevens uit de database te halen</t>
-  </si>
-  <si>
     <t>Ilma Jamillah</t>
   </si>
   <si>
     <t>css</t>
+  </si>
+  <si>
+    <t>Als programmeur wil ik een PDO database connectie</t>
+  </si>
+  <si>
+    <t>Zodat flexibel in de toekomst gewisseld kan worden tussen databases</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +428,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -539,14 +545,17 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,29 +874,29 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="107.88671875" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="107.90625" customWidth="1"/>
+    <col min="4" max="4" width="73.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -896,7 +905,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -926,7 +935,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -952,7 +961,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
@@ -972,7 +981,7 @@
       <c r="G4" s="17"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
@@ -992,7 +1001,7 @@
       <c r="G5" s="17"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>41</v>
       </c>
@@ -1012,7 +1021,7 @@
       <c r="G6" s="17"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
@@ -1032,7 +1041,7 @@
       <c r="G7" s="17"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>51</v>
       </c>
@@ -1052,7 +1061,7 @@
       <c r="G8" s="17"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
@@ -1071,7 +1080,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
@@ -1090,7 +1099,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>56</v>
       </c>
@@ -1109,7 +1118,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>58</v>
       </c>
@@ -1128,7 +1137,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>73</v>
       </c>
@@ -1145,7 +1154,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>74</v>
       </c>
@@ -1164,8 +1173,8 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="5">
@@ -1183,8 +1192,8 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="5">
@@ -1202,7 +1211,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>77</v>
       </c>
@@ -1221,7 +1230,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>78</v>
       </c>
@@ -1240,7 +1249,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>79</v>
       </c>
@@ -1259,7 +1268,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>86</v>
       </c>
@@ -1278,18 +1287,18 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>89</v>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>8</v>
@@ -1297,23 +1306,23 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
       <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1343,7 +1352,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1366,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -1368,10 +1377,10 @@
       <c r="D27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>1</v>
       </c>
@@ -1380,10 +1389,10 @@
       <c r="D28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1406,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>20</v>
@@ -1408,7 +1417,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="D31" s="14" t="s">
         <v>29</v>
@@ -1416,7 +1425,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="25"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="15" t="s">
         <v>82</v>
       </c>

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E6471-B0F0-498D-99C5-D52BD83BEF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591F120-F2BC-4B3C-BA25-5783DA15B020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>M</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Zodat flexibel in de toekomst gewisseld kan worden tussen databases</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,15 +891,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -951,8 +954,12 @@
       <c r="E3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -977,8 +984,8 @@
       <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -997,8 +1004,8 @@
       <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1017,8 +1024,12 @@
       <c r="E6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1037,8 +1048,8 @@
       <c r="E7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1057,8 +1068,8 @@
       <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1077,8 +1088,8 @@
       <c r="E9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
@@ -1096,8 +1107,8 @@
       <c r="E10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
@@ -1115,8 +1126,8 @@
       <c r="E11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
@@ -1134,8 +1145,8 @@
       <c r="E12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
@@ -1151,8 +1162,8 @@
         <v>62</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
@@ -1170,8 +1181,8 @@
       <c r="E14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
@@ -1189,8 +1200,8 @@
       <c r="E15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
@@ -1208,8 +1219,8 @@
       <c r="E16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
@@ -1227,8 +1238,8 @@
       <c r="E17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
@@ -1246,8 +1257,8 @@
       <c r="E18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
@@ -1265,8 +1276,8 @@
       <c r="E19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
@@ -1284,8 +1295,12 @@
       <c r="E20" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="F20" s="19">
+        <v>5</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
@@ -1303,8 +1318,12 @@
       <c r="E21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="F21" s="19">
+        <v>4</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="23"/>
@@ -1316,8 +1335,8 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
@@ -1377,7 +1396,7 @@
       <c r="D27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1389,7 +1408,7 @@
       <c r="D28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591F120-F2BC-4B3C-BA25-5783DA15B020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1916E0-6E1F-47EC-AD64-B12CBA6BAF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>M</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Ilma Jamillah</t>
   </si>
   <si>
-    <t>css</t>
-  </si>
-  <si>
     <t>Als programmeur wil ik een PDO database connectie</t>
   </si>
   <si>
@@ -312,6 +309,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Als UX Designer wil ik dat er een favicon komt net als de logo</t>
+  </si>
+  <si>
+    <t>Zodat mensen de website kunnen herkennen.</t>
+  </si>
+  <si>
+    <t>Nizam Sarwar</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,7 +549,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -876,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,15 +896,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -958,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1028,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1185,7 +1190,7 @@
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="5">
@@ -1204,7 +1209,7 @@
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="5">
@@ -1299,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1310,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>8</v>
@@ -1322,21 +1327,31 @@
         <v>4</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="19">
+        <v>23</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
@@ -1345,7 +1360,7 @@
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1368,8 +1383,8 @@
       <c r="D25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
@@ -1383,7 +1398,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
@@ -1396,8 +1411,8 @@
       <c r="D27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
@@ -1408,14 +1423,14 @@
       <c r="D28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
@@ -1434,7 +1449,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
@@ -1442,7 +1457,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="15" t="s">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1916E0-6E1F-47EC-AD64-B12CBA6BAF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89E0D8-48D7-404E-9E39-5A86F6FC4FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -284,9 +284,6 @@
     <t>Als beheerder wil ik dat er automatisch GPS-coordinaten op worden gevraagd (met toestemming) bij het indienen van een klacht</t>
   </si>
   <si>
-    <t>Afgerond = Groen | Leeg = Grijs</t>
-  </si>
-  <si>
     <t>Als programmeur wil ik geobject georienteerde code hebben</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>Nizam Sarwar</t>
+  </si>
+  <si>
+    <t>Afgerond = Groen | Leeg = Grijs | Mee bezig = Oranje</t>
   </si>
 </sst>
 </file>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1286,39 +1286,39 @@
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="F20" s="19">
         <v>5</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>8</v>
@@ -1327,21 +1327,21 @@
         <v>4</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>8</v>
@@ -1350,7 +1350,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1461,7 +1461,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89E0D8-48D7-404E-9E39-5A86F6FC4FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76EDDB2-36C6-460C-8815-D7B26E63AA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>M</t>
   </si>
@@ -881,21 +881,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="107.90625" customWidth="1"/>
-    <col min="4" max="4" width="73.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="107.88671875" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
@@ -989,11 +989,15 @@
       <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="19">
+        <v>24</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
@@ -1009,11 +1013,15 @@
       <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="19">
+        <v>27</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>41</v>
       </c>
@@ -1037,7 +1045,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
@@ -1057,7 +1065,7 @@
       <c r="G7" s="19"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>51</v>
       </c>
@@ -1077,7 +1085,7 @@
       <c r="G8" s="19"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
@@ -1093,10 +1101,14 @@
       <c r="E9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F9" s="19">
+        <v>2</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
@@ -1112,10 +1124,14 @@
       <c r="E10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="19">
+        <v>8</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>56</v>
       </c>
@@ -1131,10 +1147,14 @@
       <c r="E11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F11" s="19">
+        <v>9</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>58</v>
       </c>
@@ -1153,7 +1173,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>73</v>
       </c>
@@ -1170,7 +1190,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>74</v>
       </c>
@@ -1189,7 +1209,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>75</v>
       </c>
@@ -1208,7 +1228,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>76</v>
       </c>
@@ -1227,7 +1247,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>77</v>
       </c>
@@ -1243,10 +1263,14 @@
       <c r="E17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F17" s="19">
+        <v>15</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>78</v>
       </c>
@@ -1265,7 +1289,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>79</v>
       </c>
@@ -1284,7 +1308,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>85</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>86</v>
       </c>
@@ -1330,7 +1354,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>92</v>
       </c>
@@ -1353,10 +1377,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1386,7 +1410,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1424,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1438,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="27"/>
     </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>1</v>
       </c>
@@ -1423,10 +1447,10 @@
       <c r="D28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="27"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="27"/>
     </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
@@ -1440,7 +1464,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="27"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>20</v>
@@ -1451,7 +1475,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="27"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="D31" s="14" t="s">
         <v>29</v>
@@ -1459,7 +1483,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" s="15" t="s">
         <v>93</v>
       </c>

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76EDDB2-36C6-460C-8815-D7B26E63AA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C0D832-4952-4966-B34F-38A92A43AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
   <si>
     <t>M</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Zodat ik weet waar de coordinaten precies liggen</t>
   </si>
   <si>
-    <t>Als beheerder wil ik dat alle klachten te zien zijn op de kaart door middel van pin</t>
-  </si>
-  <si>
     <t>Zodat als ik er op klik er een korte beschrijving van de klacht verschijnt</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>Afgerond = Groen | Leeg = Grijs | Mee bezig = Oranje</t>
+  </si>
+  <si>
+    <t>Als beheerder wil ik dat alle klachten te zien zijn op de kaart door middel van een markering</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,12 +437,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -491,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,9 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,15 +887,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -963,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -993,7 +984,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1017,7 +1008,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1041,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1061,8 +1052,12 @@
       <c r="E7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="19">
+        <v>28</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1081,8 +1076,12 @@
       <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="19">
+        <v>7</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1105,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1128,7 +1127,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1151,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -1175,24 +1174,30 @@
     </row>
     <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="19">
+        <v>7</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5">
         <v>12</v>
@@ -1201,7 +1206,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>8</v>
@@ -1211,7 +1216,7 @@
     </row>
     <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5">
         <v>13</v>
@@ -1225,40 +1230,44 @@
       <c r="E15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="19">
+        <v>28</v>
+      </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="19">
+        <v>28</v>
+      </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>8</v>
@@ -1267,21 +1276,21 @@
         <v>15</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5">
         <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>10</v>
@@ -1291,16 +1300,16 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>9</v>
@@ -1310,39 +1319,39 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="F20" s="19">
         <v>5</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>8</v>
@@ -1351,21 +1360,21 @@
         <v>4</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>8</v>
@@ -1374,7 +1383,7 @@
         <v>23</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1436,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="24"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
@@ -1448,7 +1457,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="24"/>
-      <c r="F28" s="27"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
@@ -1462,7 +1471,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -1473,7 +1482,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -1485,7 +1494,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C0D832-4952-4966-B34F-38A92A43AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8CB7DA-CBB2-4FC8-A8ED-B01F3A1DB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +437,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -485,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +560,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,21 +881,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="107.88671875" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="107.90625" customWidth="1"/>
+    <col min="4" max="4" width="73.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -904,7 +913,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -934,7 +943,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -964,7 +973,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
@@ -988,7 +997,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
@@ -1012,7 +1021,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>41</v>
       </c>
@@ -1036,7 +1045,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
@@ -1060,7 +1069,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>51</v>
       </c>
@@ -1084,7 +1093,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>56</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>58</v>
       </c>
@@ -1172,7 +1181,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>72</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>73</v>
       </c>
@@ -1214,7 +1223,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -1235,7 +1244,7 @@
       </c>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>75</v>
       </c>
@@ -1256,7 +1265,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>76</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>77</v>
       </c>
@@ -1298,7 +1307,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>78</v>
       </c>
@@ -1317,7 +1326,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>84</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>85</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>91</v>
       </c>
@@ -1386,10 +1395,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1428,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1430,10 +1439,10 @@
       <c r="D26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1456,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1468,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
@@ -1470,10 +1479,10 @@
       <c r="D29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>20</v>
@@ -1481,10 +1490,10 @@
       <c r="D30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="D31" s="14" t="s">
         <v>29</v>
@@ -1492,7 +1501,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="15" t="s">
         <v>92</v>
       </c>

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8CB7DA-CBB2-4FC8-A8ED-B01F3A1DB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C354DA5-7A82-48B5-AFAD-6F30B18E6A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>M</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>Als beheerder wil ik dat alle klachten te zien zijn op de kaart door middel van een markering</t>
+  </si>
+  <si>
+    <t>Bij 3-personen: Must H.</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +446,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -487,11 +496,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,10 +579,17 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -881,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,18 +920,19 @@
     <col min="4" max="4" width="73.36328125" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" customWidth="1"/>
     <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1211,17 +1239,20 @@
       <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="E14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
@@ -1439,7 +1470,7 @@
       <c r="D26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1479,7 +1510,7 @@
       <c r="D29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1490,7 +1521,7 @@
       <c r="D30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C354DA5-7A82-48B5-AFAD-6F30B18E6A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD4C08-7BBB-4387-9AF4-378384C74760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>M</t>
   </si>
@@ -582,14 +582,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -908,31 +908,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="107.90625" customWidth="1"/>
-    <col min="4" max="4" width="73.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="107.88671875" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -941,7 +941,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>41</v>
       </c>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>51</v>
       </c>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>56</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>58</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>72</v>
       </c>
@@ -1232,29 +1232,29 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -1271,11 +1271,13 @@
         <v>8</v>
       </c>
       <c r="F15" s="19">
-        <v>28</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>75</v>
       </c>
@@ -1292,11 +1294,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="19">
-        <v>28</v>
-      </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>76</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>77</v>
       </c>
@@ -1338,7 +1342,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>78</v>
       </c>
@@ -1357,7 +1361,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>84</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>85</v>
       </c>
@@ -1403,7 +1407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>91</v>
       </c>
@@ -1426,10 +1430,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1463,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1477,7 @@
       <c r="E26" s="27"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -1487,7 +1491,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>1</v>
       </c>
@@ -1499,7 +1503,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1517,7 @@
       <c r="E29" s="27"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>20</v>
@@ -1524,7 +1528,7 @@
       <c r="E30" s="27"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="D31" s="14" t="s">
         <v>29</v>
@@ -1532,7 +1536,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" s="15" t="s">
         <v>92</v>
       </c>

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD4C08-7BBB-4387-9AF4-378384C74760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145DA6F0-E8E0-4AED-A4DC-9D2FE065464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,7 +1474,7 @@
       <c r="D26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145DA6F0-E8E0-4AED-A4DC-9D2FE065464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B1B14E-F3B8-480A-9C16-4279C6537AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>M</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Bij 3-personen: Must H.</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -908,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,10 +1207,14 @@
         <v>59</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="19">
+        <v>29</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B1B14E-F3B8-480A-9C16-4279C6537AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C75CC3-006F-448C-8D26-513C5F493A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -911,22 +911,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="107.88671875" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="107.90625" customWidth="1"/>
+    <col min="4" max="4" width="73.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
@@ -944,7 +944,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>41</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>51</v>
       </c>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>53</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>56</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>58</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>72</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>73</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>75</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>76</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>77</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>78</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>84</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>85</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>91</v>
       </c>
@@ -1437,10 +1437,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1481,10 +1481,10 @@
       <c r="D26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>1</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="E29" s="27"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
         <v>20</v>
@@ -1535,7 +1535,7 @@
       <c r="E30" s="27"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="D31" s="14" t="s">
         <v>29</v>
@@ -1543,7 +1543,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="15" t="s">
         <v>92</v>
       </c>

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C75CC3-006F-448C-8D26-513C5F493A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8B73B-EB67-46A1-9735-7C1F7784C6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1521,7 +1521,7 @@
       <c r="D29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="27"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1532,7 +1532,7 @@
       <c r="D30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1540,7 +1540,7 @@
       <c r="D31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A8B73B-EB67-46A1-9735-7C1F7784C6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564CCCCD-9003-400D-93A0-5D224738216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1540,7 +1540,7 @@
       <c r="D31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564CCCCD-9003-400D-93A0-5D224738216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C84ABAB-3DBD-4CE1-87B3-7BDA683DDE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
   <si>
     <t>M</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>Bij 3-personen: Must H.</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
 </sst>
 </file>
@@ -911,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:E31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1210,10 +1207,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="19">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
@@ -1346,8 +1343,12 @@
       <c r="E18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="F18" s="19">
+        <v>29</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
@@ -1365,8 +1366,12 @@
       <c r="E19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="F19" s="19">
+        <v>30</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C84ABAB-3DBD-4CE1-87B3-7BDA683DDE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD30F771-B496-4411-A8E0-0F8F4382F740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>M</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Bij 3-personen: Must H.</t>
+  </si>
+  <si>
+    <t>Allen pieter</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,6 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1555,6 +1561,11 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/documentation/Userstories.xlsx
+++ b/documentation/Userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MunicipalC\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD30F771-B496-4411-A8E0-0F8F4382F740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B4CD9-877F-4838-96C0-13763F739F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,12 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,21 +576,18 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98627A03-859C-4558-90A7-957404AB209B}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,18 +1240,18 @@
       <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1492,7 +1483,7 @@
       <c r="D26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1562,7 +1553,7 @@
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="30" t="s">
         <v>95</v>
       </c>
     </row>
